--- a/Data/Character.xlsx
+++ b/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AA27F1-EDE4-4A71-B5B1-E17EC59C8D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C162BD-2994-49A8-801D-757A9FE30C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,96 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三党</t>
+  </si>
+  <si>
+    <t>应届生</t>
+  </si>
+  <si>
+    <t>自媒体</t>
+  </si>
+  <si>
+    <t>外卖哥</t>
+  </si>
+  <si>
+    <t>码农</t>
+  </si>
+  <si>
+    <t>艺术家</t>
+  </si>
+  <si>
+    <t>创业者</t>
+  </si>
+  <si>
+    <t>煤老板</t>
+  </si>
+  <si>
+    <t>教师</t>
+  </si>
+  <si>
+    <t>中介</t>
+  </si>
+  <si>
+    <t>X回合后有概率成为任意其他职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功升级（pua）概率更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租由邻居代付，至少会付1次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算后有20%的概率离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次入住使房租+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须住在自媒体旁边，否则不入住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据邻居预算，产生额外房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合有10%的概率拉一个应届生</t>
+  </si>
+  <si>
+    <t>预算类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,8 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -344,17 +435,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1111</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>99999999</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Character.xlsx
+++ b/Data/Character.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C162BD-2994-49A8-801D-757A9FE30C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81FDDE1-F0B9-45B5-BD24-24E9DEF6BE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,14 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功升级（pua）概率更高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房租由邻居代付，至少会付1次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结算后有20%的概率离开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,26 +77,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>必须住在自媒体旁边，否则不入住</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据邻居预算，产生额外房租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每回合有10%的概率拉一个应届生</t>
   </si>
   <si>
-    <t>预算类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交所有预算金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999999,99999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#------&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#&lt;------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租由邻居代付,至少会付1次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须住在自媒体旁边,否则不入住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据邻居预算,产生额外房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +226,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -435,200 +507,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A3:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>99999999</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Data/Character.xlsx
+++ b/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81FDDE1-F0B9-45B5-BD24-24E9DEF6BE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279A399-431C-4D70-8E52-59313CBC9954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,22 @@
   </si>
   <si>
     <t>guestID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraitRoute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E18"/>
+  <dimension ref="A3:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,7 +534,7 @@
     <col min="3" max="3" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -534,13 +550,16 @@
       <c r="E3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -556,8 +575,11 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -573,8 +595,11 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -590,8 +615,11 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -607,8 +635,11 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -624,8 +655,11 @@
       <c r="E9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -635,8 +669,11 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -652,8 +689,11 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -669,8 +709,11 @@
       <c r="E12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
@@ -686,8 +729,11 @@
       <c r="E13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -703,8 +749,11 @@
       <c r="E14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
@@ -720,8 +769,11 @@
       <c r="E15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -736,6 +788,9 @@
       </c>
       <c r="E16" t="s">
         <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">

--- a/Data/Character.xlsx
+++ b/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279A399-431C-4D70-8E52-59313CBC9954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92568241-8CF7-4F12-8B7C-43CD26A4A3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A3:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Data/Character.xlsx
+++ b/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92568241-8CF7-4F12-8B7C-43CD26A4A3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0339EB3D-D269-4515-BDCC-0EF92D844162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-360" yWindow="1365" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,11 +192,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GuestPortrait/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuestPortrait/2</t>
+    <t>GuestPortrait/student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/media</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/taker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/coder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/starter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/artist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/sales</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,7 +688,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -670,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -690,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -710,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -730,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -750,7 +782,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -770,7 +802,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -790,7 +822,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">

--- a/Data/Character.xlsx
+++ b/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D604A87-05C5-4AB4-A14E-0F91473ECCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4133300-C8B4-4E99-AAD8-7E860892BBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="183">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,6 +591,38 @@
   </si>
   <si>
     <t>personaID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persona/I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persona/E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persona/J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persona/P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persona/T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persona/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persona/S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persona/N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,13 +954,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2212,13 +2245,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
         <v>70</v>
       </c>
       <c r="C53">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -2238,13 +2271,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
         <v>30</v>
       </c>
       <c r="C54">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -2264,13 +2297,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
       </c>
       <c r="C55">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
@@ -2290,13 +2323,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
       </c>
       <c r="C56">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
@@ -2316,13 +2349,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
       </c>
       <c r="C57">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -2342,13 +2375,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
         <v>74</v>
       </c>
       <c r="C58">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
@@ -2368,13 +2401,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
       <c r="C59">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -2394,13 +2427,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>30</v>
       </c>
       <c r="C60">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
@@ -2420,13 +2453,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
       </c>
       <c r="C61">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
@@ -2446,13 +2479,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
         <v>32</v>
       </c>
       <c r="C62">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -2472,13 +2505,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
         <v>78</v>
       </c>
       <c r="C63">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -2498,13 +2531,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>30</v>
       </c>
       <c r="C64">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
@@ -2524,13 +2557,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
       </c>
       <c r="C65">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D65" s="2">
         <v>2</v>
@@ -2550,13 +2583,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
         <v>81</v>
       </c>
       <c r="C66">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -2576,13 +2609,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
         <v>30</v>
       </c>
       <c r="C67">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
@@ -2602,13 +2635,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
         <v>57</v>
       </c>
       <c r="C68">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
@@ -2628,13 +2661,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
         <v>82</v>
       </c>
       <c r="C69">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D69" s="2">
         <v>10</v>
@@ -3058,7 +3091,7 @@
   <dimension ref="A3:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3581,7 +3614,7 @@
   <dimension ref="A3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3683,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3706,7 +3739,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3729,7 +3762,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3752,7 +3785,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3775,7 +3808,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3798,7 +3831,7 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3821,7 +3854,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3844,7 +3877,7 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">

--- a/Data/Character.xlsx
+++ b/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4133300-C8B4-4E99-AAD8-7E860892BBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815676D7-9BF8-4044-8982-92FC5BEEBA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="181">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,14 +583,6 @@
   </si>
   <si>
     <t>2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人格ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personaID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -954,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C69"/>
     </sheetView>
   </sheetViews>
@@ -3088,517 +3080,460 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69429730-CA77-461F-B68E-A7E7ECED8AF0}">
-  <dimension ref="A3:H24"/>
+  <dimension ref="A3:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
         <v>96</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
         <v>1467</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>119</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>3001</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>120</v>
       </c>
+      <c r="E7">
+        <v>3101</v>
+      </c>
       <c r="F7">
-        <v>3101</v>
-      </c>
-      <c r="G7">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
         <v>1468</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>121</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>3002</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>122</v>
       </c>
+      <c r="E8">
+        <v>3102</v>
+      </c>
       <c r="F8">
-        <v>3102</v>
-      </c>
-      <c r="G8">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
         <v>2467</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
         <v>123</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>3003</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>124</v>
       </c>
+      <c r="E9">
+        <v>3103</v>
+      </c>
       <c r="F9">
-        <v>3103</v>
-      </c>
-      <c r="G9">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
         <v>2468</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>125</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>3004</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
         <v>126</v>
       </c>
+      <c r="E10">
+        <v>3104</v>
+      </c>
       <c r="F10">
-        <v>3104</v>
-      </c>
-      <c r="G10">
         <v>23</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
         <v>1457</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>3005</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
         <v>128</v>
       </c>
+      <c r="E11">
+        <v>3105</v>
+      </c>
       <c r="F11">
-        <v>3105</v>
-      </c>
-      <c r="G11">
         <v>24</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
         <v>1458</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>129</v>
       </c>
-      <c r="D12">
+      <c r="C12">
         <v>3006</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
         <v>130</v>
       </c>
+      <c r="E12">
+        <v>3106</v>
+      </c>
       <c r="F12">
-        <v>3106</v>
-      </c>
-      <c r="G12">
         <v>25</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
         <v>2457</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="D13">
+      <c r="C13">
         <v>3007</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>132</v>
       </c>
+      <c r="E13">
+        <v>3107</v>
+      </c>
       <c r="F13">
-        <v>3107</v>
-      </c>
-      <c r="G13">
         <v>26</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
         <v>2458</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>133</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>3008</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
         <v>134</v>
       </c>
+      <c r="E14">
+        <v>3108</v>
+      </c>
       <c r="F14">
-        <v>3108</v>
-      </c>
-      <c r="G14">
         <v>27</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
         <v>1367</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>135</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>3009</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>136</v>
       </c>
+      <c r="E15">
+        <v>3109</v>
+      </c>
       <c r="F15">
-        <v>3109</v>
-      </c>
-      <c r="G15">
         <v>28</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16">
         <v>1357</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>137</v>
       </c>
-      <c r="D16">
+      <c r="C16">
         <v>3010</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s">
         <v>138</v>
       </c>
+      <c r="E16">
+        <v>3110</v>
+      </c>
       <c r="F16">
-        <v>3110</v>
-      </c>
-      <c r="G16">
         <v>29</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
         <v>2367</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>139</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <v>3011</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
         <v>140</v>
       </c>
+      <c r="E17">
+        <v>3111</v>
+      </c>
       <c r="F17">
-        <v>3111</v>
-      </c>
-      <c r="G17">
         <v>30</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
         <v>2357</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>141</v>
       </c>
-      <c r="D18">
+      <c r="C18">
         <v>3012</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
         <v>142</v>
       </c>
+      <c r="E18">
+        <v>3112</v>
+      </c>
       <c r="F18">
-        <v>3112</v>
-      </c>
-      <c r="G18">
         <v>31</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
         <v>1368</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>143</v>
       </c>
-      <c r="D19">
+      <c r="C19">
         <v>3013</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
         <v>144</v>
       </c>
+      <c r="E19">
+        <v>3113</v>
+      </c>
       <c r="F19">
-        <v>3113</v>
-      </c>
-      <c r="G19">
         <v>32</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="B20">
         <v>1358</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>145</v>
       </c>
-      <c r="D20">
+      <c r="C20">
         <v>3014</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
         <v>146</v>
       </c>
+      <c r="E20">
+        <v>3114</v>
+      </c>
       <c r="F20">
-        <v>3114</v>
-      </c>
-      <c r="G20">
         <v>33</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>15</v>
-      </c>
-      <c r="B21">
         <v>2368</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
         <v>147</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>3015</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s">
         <v>148</v>
       </c>
+      <c r="E21">
+        <v>3115</v>
+      </c>
       <c r="F21">
-        <v>3115</v>
-      </c>
-      <c r="G21">
         <v>34</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22">
         <v>2358</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>149</v>
       </c>
-      <c r="D22">
+      <c r="C22">
         <v>3016</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
         <v>150</v>
       </c>
+      <c r="E22">
+        <v>3116</v>
+      </c>
       <c r="F22">
-        <v>3116</v>
-      </c>
-      <c r="G22">
         <v>35</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -3716,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3739,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3762,7 +3697,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3785,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3808,7 +3743,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3831,7 +3766,7 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3854,7 +3789,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3877,7 +3812,7 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">

--- a/Data/Character.xlsx
+++ b/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815676D7-9BF8-4044-8982-92FC5BEEBA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C71FA90-3117-49E6-A58D-9414B179E9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,97 +422,49 @@
     <t>INTJ</t>
   </si>
   <si>
-    <t>每有一个房客被卖出，所有租客房租{0}</t>
-  </si>
-  <si>
     <t>INTP</t>
   </si>
   <si>
-    <t>每回合结束后，随机改变一个租客的职业</t>
-  </si>
-  <si>
     <t>ENTJ</t>
   </si>
   <si>
-    <t>选择一个租客，使其房租翻倍</t>
-  </si>
-  <si>
     <t>ENTP</t>
   </si>
   <si>
-    <t>每次改变职业后，租金{0}</t>
-  </si>
-  <si>
     <t>INFJ</t>
   </si>
   <si>
-    <t>每回合结束后，所有租客房租{0}</t>
-  </si>
-  <si>
     <t>INFP</t>
   </si>
   <si>
-    <t>买入租客的价格{0}</t>
-  </si>
-  <si>
     <t>ENFJ</t>
   </si>
   <si>
-    <t>使所有租客变为外向型</t>
-  </si>
-  <si>
     <t>ENFP</t>
   </si>
   <si>
-    <t>每有一个外向型，房租{0}</t>
-  </si>
-  <si>
     <t>ISTJ</t>
   </si>
   <si>
-    <t>每有{0}元余额，额外获得{1}元</t>
-  </si>
-  <si>
     <t>ISFJ</t>
   </si>
   <si>
-    <t>获得{0}天额外天数</t>
-  </si>
-  <si>
     <t>ESTJ</t>
   </si>
   <si>
-    <t>每回合生成{0}个任意职业的实习生</t>
-  </si>
-  <si>
     <t>ESFJ</t>
   </si>
   <si>
-    <t>使所有实习生房租{0}</t>
-  </si>
-  <si>
     <t>ISTP</t>
   </si>
   <si>
-    <t>每有一个空房间，租金{0}</t>
-  </si>
-  <si>
     <t>ISFP</t>
   </si>
   <si>
-    <t>空房间也可提供{0}租金</t>
-  </si>
-  <si>
     <t>ESTP</t>
   </si>
   <si>
-    <t>每个完整人格拥有者提供{0}租金</t>
-  </si>
-  <si>
     <t>ESFP</t>
-  </si>
-  <si>
-    <t>若周围有空房间，用随机租客填满所有空房</t>
   </si>
   <si>
     <t>内向</t>
@@ -616,6 +568,54 @@
   <si>
     <t>Persona/N</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天，生成一个任意职业的实习生</t>
+  </si>
+  <si>
+    <t>每有一个房客被卖出后，所有租客房租+1</t>
+  </si>
+  <si>
+    <t>获得后触发：选择一个租客，使其房租翻倍</t>
+  </si>
+  <si>
+    <t>每回合结束后，所有租客房租+1</t>
+  </si>
+  <si>
+    <t>持续生效：买入租客的价格降低50%</t>
+  </si>
+  <si>
+    <t>获得后触发：使所有租客变为外向型</t>
+  </si>
+  <si>
+    <t>交租时，每有一个外向型，房租+1</t>
+  </si>
+  <si>
+    <t>交租后，每有5元余额，额外获得1元</t>
+  </si>
+  <si>
+    <t>持续生效：使所有实习生房租+1</t>
+  </si>
+  <si>
+    <t>持续生效：交租时，空房间也可提供+5租金</t>
+  </si>
+  <si>
+    <t>若没有邻居，租金随机增加1~10</t>
+  </si>
+  <si>
+    <t>获得邻居最高的房租</t>
+  </si>
+  <si>
+    <t>若没有邻居，则生成8个随机租客，然后离开</t>
+  </si>
+  <si>
+    <t>持续生效：交租前，周围每有一个空房间，租金+10</t>
+  </si>
+  <si>
+    <t>若基础租金比所有邻居都高，则让邻居租金等于他的租金</t>
+  </si>
+  <si>
+    <t>若所有邻居都是ESFP，这局游戏胜利</t>
   </si>
 </sst>
 </file>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C69"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2716,7 +2716,7 @@
         <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
         <v>88</v>
@@ -2741,7 +2741,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -2761,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
         <v>96</v>
@@ -2781,7 +2781,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -2801,7 +2801,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2821,7 +2821,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
@@ -2841,7 +2841,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
@@ -2861,7 +2861,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
         <v>43</v>
@@ -2881,7 +2881,7 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
@@ -2901,7 +2901,7 @@
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
         <v>51</v>
@@ -2921,7 +2921,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
@@ -2941,7 +2941,7 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
         <v>59</v>
@@ -2961,7 +2961,7 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
         <v>65</v>
@@ -2981,7 +2981,7 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -3001,7 +3001,7 @@
         <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -3021,7 +3021,7 @@
         <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
         <v>77</v>
@@ -3041,7 +3041,7 @@
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
         <v>80</v>
@@ -3061,7 +3061,7 @@
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -3083,7 +3083,7 @@
   <dimension ref="A3:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3111,7 +3111,7 @@
         <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3176,7 +3176,7 @@
         <v>3001</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E7">
         <v>3101</v>
@@ -3193,13 +3193,13 @@
         <v>1468</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>3002</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="E8">
         <v>3102</v>
@@ -3216,13 +3216,13 @@
         <v>2467</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>3003</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="E9">
         <v>3103</v>
@@ -3239,13 +3239,13 @@
         <v>2468</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10">
         <v>3004</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="E10">
         <v>3104</v>
@@ -3262,13 +3262,13 @@
         <v>1457</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C11">
         <v>3005</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E11">
         <v>3105</v>
@@ -3285,13 +3285,13 @@
         <v>1458</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12">
         <v>3006</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="E12">
         <v>3106</v>
@@ -3308,13 +3308,13 @@
         <v>2457</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C13">
         <v>3007</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E13">
         <v>3107</v>
@@ -3331,13 +3331,13 @@
         <v>2458</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C14">
         <v>3008</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="E14">
         <v>3108</v>
@@ -3354,13 +3354,13 @@
         <v>1367</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C15">
         <v>3009</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E15">
         <v>3109</v>
@@ -3377,13 +3377,13 @@
         <v>1357</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C16">
         <v>3010</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="E16">
         <v>3110</v>
@@ -3400,13 +3400,13 @@
         <v>2367</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C17">
         <v>3011</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E17">
         <v>3111</v>
@@ -3423,13 +3423,13 @@
         <v>2357</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C18">
         <v>3012</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="E18">
         <v>3112</v>
@@ -3446,13 +3446,13 @@
         <v>1368</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C19">
         <v>3013</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E19">
         <v>3113</v>
@@ -3469,13 +3469,13 @@
         <v>1358</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C20">
         <v>3014</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="E20">
         <v>3114</v>
@@ -3492,13 +3492,13 @@
         <v>2368</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C21">
         <v>3015</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="E21">
         <v>3115</v>
@@ -3515,13 +3515,13 @@
         <v>2358</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C22">
         <v>3016</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E22">
         <v>3116</v>
@@ -3577,7 +3577,7 @@
         <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3636,13 +3636,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>4001</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>4101</v>
@@ -3651,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3659,13 +3659,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C8">
         <v>4002</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>4102</v>
@@ -3674,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3682,13 +3682,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <v>4003</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E9">
         <v>4103</v>
@@ -3697,7 +3697,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3705,13 +3705,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>4004</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E10">
         <v>4104</v>
@@ -3720,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3728,13 +3728,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C11">
         <v>4005</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>4105</v>
@@ -3743,7 +3743,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3751,13 +3751,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>4006</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E12">
         <v>4106</v>
@@ -3766,7 +3766,7 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3774,13 +3774,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C13">
         <v>4007</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E13">
         <v>4107</v>
@@ -3789,7 +3789,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3797,13 +3797,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C14">
         <v>4008</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E14">
         <v>4108</v>
@@ -3812,7 +3812,7 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">

--- a/Data/Character.xlsx
+++ b/Data/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C71FA90-3117-49E6-A58D-9414B179E9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29B8F3-5FAC-4CAE-8DE4-C186C3F07CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3082,7 +3082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69429730-CA77-461F-B68E-A7E7ECED8AF0}">
   <dimension ref="A3:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Data/Character.xlsx
+++ b/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29B8F3-5FAC-4CAE-8DE4-C186C3F07CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2FF3DC-58F9-497E-AC24-EF737782DEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="207">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,6 +616,110 @@
   </si>
   <si>
     <t>若所有邻居都是ESFP，这局游戏胜利</t>
+  </si>
+  <si>
+    <t>GuestPortrait/gaozhongsheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/quanshangge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/jinrongshixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/youxishixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/cehuage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/ziyouzhiye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/peixunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/jiaoyushixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/kefuge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/dianshangshixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/tiyuge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/tiyushixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/fangdichanshixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/yishuge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/yishushixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/canyinge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/canyinshixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/meitige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/meitishixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/lvyouge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/lvyoushixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/zhubaoge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/zhubaoshixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/yiliaoge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/yiliaoshixige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestPortrait/shiyege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -946,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1079,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1105,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1131,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1157,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1183,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1209,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1235,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1261,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1287,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1313,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1339,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1365,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1391,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1417,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1443,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1469,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1495,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1521,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1547,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1573,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1599,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1625,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1651,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1677,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1703,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1729,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1755,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1781,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1807,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1833,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1937,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1963,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1989,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2015,7 +2119,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2041,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2067,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2093,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2119,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2145,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2171,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2197,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2223,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2249,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2275,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2301,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2327,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2353,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2379,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2405,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2431,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2457,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2483,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2509,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2535,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2561,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2587,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2613,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2639,7 +2743,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -2665,7 +2769,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="F69">
         <v>1</v>
